--- a/BOM和坐标文件/Fly-Balance.xlsx
+++ b/BOM和坐标文件/Fly-Balance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="22635" windowHeight="10995"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="37755" windowHeight="20220"/>
   </bookViews>
   <sheets>
     <sheet name="Fly-Balance" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="152">
   <si>
     <t>Comment</t>
   </si>
@@ -54,7 +54,7 @@
     <t>电容</t>
   </si>
   <si>
-    <t>C1, C4, C17, C19</t>
+    <t>C1, C3, C4, C17, C19</t>
   </si>
   <si>
     <t>0805C</t>
@@ -63,16 +63,10 @@
     <t>104</t>
   </si>
   <si>
-    <t>C2, C7, C8, C9, C10, C11, C14, C15, C16, C18, C20, C21, C22, C32, C34</t>
+    <t>C2, C7, C8, C9, C10, C11, C14, C15, C16, C20, C21, C32, C34</t>
   </si>
   <si>
     <t>0402C</t>
-  </si>
-  <si>
-    <t>1uF</t>
-  </si>
-  <si>
-    <t>C3</t>
   </si>
   <si>
     <t>10uF</t>
@@ -870,10 +864,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -915,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -929,10 +923,10 @@
         <v>12</v>
       </c>
       <c r="E3" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="67.5" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -946,7 +940,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -960,13 +954,13 @@
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>18</v>
       </c>
@@ -977,13 +971,13 @@
         <v>19</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
@@ -997,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -1014,7 +1008,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -1031,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -1102,169 +1096,169 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E15" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E16" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>6</v>
+        <v>62</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="C23" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23" s="4">
         <v>1</v>
@@ -1272,16 +1266,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -1292,13 +1286,13 @@
         <v>70</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>71</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -1309,13 +1303,13 @@
         <v>72</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>73</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -1326,13 +1320,13 @@
         <v>74</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -1340,50 +1334,50 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="E28" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>81</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E29" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E30" s="4">
         <v>4</v>
@@ -1391,33 +1385,33 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="E31" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>90</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E32" s="4">
         <v>1</v>
@@ -1428,67 +1422,67 @@
         <v>91</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>92</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E33" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E34" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E35" s="4">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="E36" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -1496,33 +1490,33 @@
         <v>100</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>101</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E37" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>103</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E38" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.15">
@@ -1530,33 +1524,33 @@
         <v>104</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>105</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E39" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="27" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>107</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E40" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -1564,13 +1558,13 @@
         <v>108</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
@@ -1581,13 +1575,13 @@
         <v>110</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>111</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
@@ -1597,63 +1591,63 @@
       <c r="A43" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="B43" s="4"/>
       <c r="C43" s="3" t="s">
         <v>113</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="E43" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A44" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="4"/>
+      <c r="B44" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="C44" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E44" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E45" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E46" s="4">
         <v>1</v>
@@ -1661,84 +1655,84 @@
     </row>
     <row r="47" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A47" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E47" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E48" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E49" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E50" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E51" s="4">
         <v>1</v>
@@ -1746,16 +1740,16 @@
     </row>
     <row r="52" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E52" s="4">
         <v>1</v>
@@ -1763,35 +1757,18 @@
     </row>
     <row r="53" spans="1:5" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="E53" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="E54" s="4">
         <v>1</v>
       </c>
     </row>
